--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PREDICT_SALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$2039</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1469,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2001" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="N2024" sqref="N2024"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1484,7 @@
     <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -60616,6 +60619,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I2039"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>